--- a/data/income_statement/2digits/total/69_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/69_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>69-Legal and accounting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>69-Legal and accounting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1541887.99587</v>
@@ -959,34 +865,39 @@
         <v>1906471.83186</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2026107.65239</v>
+        <v>2026177.67539</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2059017.45022</v>
+        <v>2060674.00536</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2326593.3607</v>
+        <v>2337047.93688</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2678337.07179</v>
+        <v>2697870.39411</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2671562.05129</v>
+        <v>3104863.7577</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>3366160.64536</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3842313.58046</v>
+        <v>3850048.23022</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4638860.070900001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4677922.98097</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5509537.602</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1384131.39881</v>
@@ -998,34 +909,39 @@
         <v>1703371.22623</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1811856.01588</v>
+        <v>1811926.03888</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1870192.13639</v>
+        <v>1871848.64164</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2137431.59897</v>
+        <v>2145263.79979</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2452327.8261</v>
+        <v>2471497.07672</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2446763.06119</v>
+        <v>2839444.5156</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>3049117.82722</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3502905.82397</v>
+        <v>3510136.10073</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4216688.56818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4255104.2974</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5008275.606</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>126289.69941</v>
@@ -1040,40 +956,45 @@
         <v>179973.26999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>154892.62711</v>
+        <v>154892.677</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>154509.92823</v>
+        <v>157092.68434</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>186792.10469</v>
+        <v>186846.82406</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>172240.41437</v>
+        <v>212399.99855</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>244958.4986</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>263963.12408</v>
+        <v>264418.18004</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>322337.2182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>322610.29585</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>393897.638</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>31466.89765</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>24577.97828</v>
+        <v>24577.97828000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>28766.21414</v>
+        <v>28766.21413999999</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>34278.36652</v>
@@ -1082,28 +1003,33 @@
         <v>33932.68672</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>34651.8335</v>
+        <v>34691.45275</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>39217.141</v>
+        <v>39526.49333</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>52558.57573</v>
+        <v>53019.24355000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>72084.31954</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>75444.63240999999</v>
+        <v>75493.94945</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>99834.28452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>100208.38772</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>107364.358</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>13258.7507</v>
@@ -1118,31 +1044,36 @@
         <v>12587.85974</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>13082.8778</v>
+        <v>13084.99645</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>19375.48464</v>
+        <v>19811.53655</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>32868.83804</v>
+        <v>33165.66935</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>26808.82889</v>
+        <v>35403.29499</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>38475.80718</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>54409.08072999999</v>
+        <v>54426.30954</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>67825.26946000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>68935.46932</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>81319.02899999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>9698.109030000001</v>
@@ -1154,34 +1085,39 @@
         <v>12434.0212</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9096.06487</v>
+        <v>9096.064869999998</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9960.522479999998</v>
+        <v>9962.64113</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>15850.72218</v>
+        <v>16286.77409</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>27996.86412</v>
+        <v>28293.1919</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>21114.67838</v>
+        <v>29709.14448</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>32313.30122</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>45702.96753999999</v>
+        <v>45720.19634999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>56257.82516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>57368.02502</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>69470.928</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3272.39089</v>
@@ -1199,28 +1135,33 @@
         <v>2758.86707</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2805.79932</v>
+        <v>2805.799319999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3752.88914</v>
+        <v>3752.889140000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4294.815949999999</v>
+        <v>4294.81595</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4711.818560000001</v>
+        <v>4711.81856</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6247.913930000001</v>
+        <v>6247.91393</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>8083.97884</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>8546.495999999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>288.25078</v>
@@ -1238,10 +1179,10 @@
         <v>363.48825</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>718.9631400000002</v>
+        <v>718.96314</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1119.08478</v>
+        <v>1119.58831</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>1399.33456</v>
@@ -1253,13 +1194,18 @@
         <v>2458.19926</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3483.46546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3483.465459999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3301.605</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1528629.24517</v>
@@ -1271,73 +1217,83 @@
         <v>1891367.55308</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2013519.79265</v>
+        <v>2013589.81565</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2045934.57242</v>
+        <v>2047589.00891</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2307217.87606</v>
+        <v>2317236.40033</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2645468.23375</v>
+        <v>2664704.72476</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2644753.2224</v>
+        <v>3069460.46271</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3327684.83818</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3787904.49973</v>
+        <v>3795621.92068</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4571034.801440001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4608987.51165</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5428218.573</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>931236.7214100001</v>
+        <v>931236.7214099999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>908865.1308399999</v>
+        <v>908865.13084</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>1125918.37151</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1184644.94213</v>
+        <v>1184689.29216</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1226356.95657</v>
+        <v>1227619.91001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1410005.55652</v>
+        <v>1413814.30611</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1585329.25358</v>
+        <v>1595100.285</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1635593.25897</v>
+        <v>1946171.51119</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2091800.29939</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2407313.36316</v>
+        <v>2412065.89854</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2859487.4633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2886714.86943</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3404159.954</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>19189.36606</v>
@@ -1367,16 +1323,21 @@
         <v>13602.18942</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7511.77683</v>
+        <v>8732.646839999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>16352.53478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16679.0543</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>21553.772</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>82173.61767000002</v>
@@ -1391,70 +1352,80 @@
         <v>117164.45289</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>64759.04506</v>
+        <v>65317.36585</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>68506.68790999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>74989.49109000001</v>
+        <v>75046.36152999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>162323.37038</v>
+        <v>162324.74126</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>65251.37787</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>48867.62439</v>
+        <v>48912.15875</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>48337.75624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>64177.67439</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>74958.58199999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>827676.19074</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>764491.6444</v>
+        <v>764491.6444000001</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>945218.84319</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1053438.4009</v>
+        <v>1053482.75093</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1147670.90654</v>
+        <v>1148375.26817</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1332852.92525</v>
+        <v>1336661.67484</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1502404.85949</v>
+        <v>1512085.05831</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1460714.76978</v>
+        <v>1771249.43205</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1963052.43363</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2343701.1287</v>
+        <v>2347186.17971</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2785526.37255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2796557.33782</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3297843.805</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2197.54694</v>
@@ -1469,34 +1440,39 @@
         <v>2843.0769</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2923.3903</v>
+        <v>2923.66132</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>2794.18148</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5548.73006</v>
+        <v>5582.69222</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4431.85922</v>
+        <v>4474.078289999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>49894.29847</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>7232.83324</v>
+        <v>7234.91324</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>9270.799730000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9300.80292</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9803.795</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>597392.52376</v>
+        <v>597392.5237599999</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>619353.28373</v>
@@ -1505,34 +1481,39 @@
         <v>765449.1815699999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>828874.85052</v>
+        <v>828900.5234900001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>819577.6158499999</v>
+        <v>819969.0989000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>897212.3195399999</v>
+        <v>903422.0942200001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1060138.98017</v>
+        <v>1069604.43976</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1009159.96343</v>
+        <v>1123288.95152</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1235884.53879</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1380591.13657</v>
+        <v>1383556.02214</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1711547.33814</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1722272.64222</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2024058.619</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>396525.94599</v>
@@ -1541,37 +1522,42 @@
         <v>424252.42389</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>531488.12145</v>
+        <v>531488.1214500001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>559871.4866299999</v>
+        <v>559899.95443</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>561326.37164</v>
+        <v>561650.4340199999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>608203.77999</v>
+        <v>611627.3145200001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>721601.7975399999</v>
+        <v>726761.15691</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>657733.5253199999</v>
+        <v>798415.19536</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>866792.38593</v>
+        <v>866792.3859300001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>946434.4138699999</v>
+        <v>949483.17691</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1262725.29991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1271518.42346</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1379420.961</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>871.5618300000001</v>
@@ -1580,7 +1566,7 @@
         <v>683.1435</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>775.5092099999999</v>
+        <v>775.5092100000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>1093.52567</v>
@@ -1595,10 +1581,10 @@
         <v>1431.64179</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>973.8928199999999</v>
+        <v>973.89282</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>491.7373</v>
+        <v>491.7373000000001</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>710.19621</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>48586.20871</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>59672.521</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>22877.78164</v>
@@ -1625,31 +1616,36 @@
         <v>37906.97815</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>33790.60834</v>
+        <v>33800.7809</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>31896.75176</v>
+        <v>31928.67165</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>40559.33372</v>
+        <v>41557.25359</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>48415.04176</v>
+        <v>51239.84287</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>58405.66159</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>58485.43666</v>
+        <v>58630.67004</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>94309.39037000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>94944.52382999998</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>95428.641</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>372776.60252</v>
@@ -1661,34 +1657,39 @@
         <v>495143.39509</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>520870.98281</v>
+        <v>520899.45061</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>527206.4947799999</v>
+        <v>527520.3846</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>575656.76622</v>
+        <v>579048.38086</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>679610.82203</v>
+        <v>683772.26153</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>608344.59074</v>
+        <v>746201.45967</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>807894.9870399999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>887238.7810000001</v>
+        <v>890142.31066</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1119829.70083</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1127987.69092</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1224319.799</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>200866.57777</v>
@@ -1700,34 +1701,39 @@
         <v>233961.06012</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>269003.36389</v>
+        <v>269000.56906</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>258251.24421</v>
+        <v>258318.66488</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>289008.53955</v>
+        <v>291794.7797000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>338537.18263</v>
+        <v>342843.28285</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>351426.43811</v>
+        <v>324873.75616</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>369092.15286</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>434156.7227</v>
+        <v>434072.8452300001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>448822.0382300001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>450754.21876</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>644637.6580000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>114150.94804</v>
@@ -1739,43 +1745,48 @@
         <v>98727.57745</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>76369.60899000001</v>
+        <v>76372.85772</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>138154.57429</v>
+        <v>138174.15301</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>172719.0064</v>
+        <v>173963.10307</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>168071.43192</v>
+        <v>169520.16452</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>123201.22976</v>
+        <v>179487.07895</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>276897.84664</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>347689.17186</v>
+        <v>347807.18535</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>373994.98142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>374710.71947</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>368291.779</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>5755.817889999999</v>
+        <v>5755.81789</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4474.66665</v>
+        <v>4474.666649999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3149.455149999999</v>
+        <v>3149.45515</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>1820.25515</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>9491.08368</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2434.936</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>13029.37389</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>565.9344300000001</v>
+        <v>565.93443</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>327.49129</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>2599.57658</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>30150.78306</v>
+        <v>30150.78305999999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>25296.1416</v>
@@ -1859,37 +1880,42 @@
         <v>15536.88058</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>12014.32665</v>
+        <v>12021.14056</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>11525.83076</v>
+        <v>11528.09309</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13836.12156</v>
+        <v>14084.81163</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>15100.29744</v>
+        <v>15488.74224</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>18227.2519</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>32858.45525</v>
+        <v>32859.47125</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>55605.42558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>55628.76229000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>56226.992</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>693.17932</v>
+        <v>693.1793200000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>669.3291800000001</v>
+        <v>669.32918</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>672.36901</v>
@@ -1907,7 +1933,7 @@
         <v>101.83656</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>95.49621</v>
+        <v>95.49620999999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>102.50791</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>3929.27721</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1534.507</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1109.61992</v>
@@ -1943,7 +1974,7 @@
         <v>2595.38454</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3006.40276</v>
+        <v>3070.85555</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2159.89681</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>5620.56063</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5116.701</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4926.09298</v>
+        <v>4926.092979999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>14333.95292</v>
@@ -1973,7 +2009,7 @@
         <v>1607.50188</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5472.97128</v>
+        <v>5472.971280000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>1213.25408</v>
@@ -1982,7 +2018,7 @@
         <v>2083.4319</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1870.68878</v>
+        <v>2059.83896</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>3014.10416</v>
@@ -1994,13 +2030,18 @@
         <v>3226.21585</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5938.41642</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5947.4207</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6417.077</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>29488.50964</v>
@@ -2015,37 +2056,42 @@
         <v>24860.75619</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>90325.06578999999</v>
+        <v>90337.29057</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>118382.14297</v>
+        <v>118552.12867</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>79189.67889</v>
+        <v>80064.07618999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>76034.25233</v>
+        <v>82352.92919999998</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>83465.93978</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>212760.31028</v>
+        <v>212855.16099</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>164090.20274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>164115.85288</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>167055.56</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>73.26803</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>789.7882799999999</v>
+        <v>789.78828</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>321.63124</v>
@@ -2057,7 +2103,7 @@
         <v>999.44889</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>98.31355000000001</v>
+        <v>1119.72179</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>38.55954</v>
@@ -2066,7 +2112,7 @@
         <v>107.46185</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>97.31865000000001</v>
+        <v>97.31864999999999</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>312.3882</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>173.40522</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>76.721</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>42.72410000000001</v>
+        <v>42.7241</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>41.81772</v>
@@ -2111,13 +2162,18 @@
         <v>2.8125</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>28.69936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>334.88532</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>28881.57921</v>
@@ -2129,34 +2185,39 @@
         <v>27255.09627</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>25825.09864</v>
+        <v>25828.34737</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>30496.50807</v>
+        <v>30497.0481</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>36592.32269</v>
+        <v>36642.76308999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>54763.49074</v>
+        <v>54835.53300000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>21087.32617</v>
+        <v>70666.05369</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>150558.73607</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>91831.52436</v>
+        <v>91853.67113999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>126518.334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>126869.89496</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>129429.285</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>44373.56221</v>
@@ -2171,31 +2232,36 @@
         <v>37698.62246</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>98170.95263</v>
+        <v>98211.15328</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>281131.31656</v>
+        <v>282112.23999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>113222.44356</v>
+        <v>114646.4189</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>110073.51307</v>
+        <v>120705.05999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>137246.0205</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>232609.95318</v>
+        <v>232635.12648</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>182698.8777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>182889.12862</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>146137.025</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>524.38558</v>
@@ -2213,28 +2279,33 @@
         <v>498.20922</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>552.5763499999999</v>
+        <v>552.57635</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1019.8969</v>
+        <v>1020.05939</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>713.95445</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>776.7459299999998</v>
+        <v>776.7459299999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>763.74638</v>
+        <v>763.7463799999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>986.33368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>987.65333</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1065.723</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>6335.42496</v>
@@ -2246,19 +2317,19 @@
         <v>4333.94124</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6376.401859999999</v>
+        <v>6376.40186</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>8046.42512</v>
+        <v>8057.39888</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7976.37099</v>
+        <v>8028.17099</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9113.222089999999</v>
+        <v>9427.056189999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12486.19085</v>
+        <v>12847.608</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>11988.00896</v>
@@ -2267,13 +2338,18 @@
         <v>11975.50351</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>16804.03225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>16931.80925</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>20263.553</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>143.33001</v>
@@ -2282,7 +2358,7 @@
         <v>191.87409</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>347.7962900000001</v>
+        <v>347.79629</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>171.52681</v>
@@ -2297,7 +2373,7 @@
         <v>33.08676000000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>181.16591</v>
+        <v>235.11468</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>84.97657000000001</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1556.31189</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2172.816</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>34294.84681</v>
@@ -2327,31 +2408,36 @@
         <v>26779.81181</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>82901.71086000001</v>
+        <v>82927.68577</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>130885.5649</v>
+        <v>131031.23962</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>96598.62471999999</v>
+        <v>97699.6963</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>90709.37878999999</v>
+        <v>100905.86334</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>94889.98501</v>
+        <v>94889.98500999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>195191.55485</v>
+        <v>195204.4705</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>147008.90377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>147015.22029</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>103258.893</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>475.80389</v>
@@ -2369,7 +2455,7 @@
         <v>1180.99606</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>63.35973000000001</v>
+        <v>846.8084399999999</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>33.88585</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>154.13637</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>75.563</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>54.07902</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2545.69194</v>
@@ -2438,37 +2534,42 @@
         <v>4059.77331</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5985.57647</v>
+        <v>5985.576470000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>3543.77195</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5115.8848</v>
+        <v>5119.136780000002</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5989.32073</v>
+        <v>5989.320729999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6423.72724</v>
+        <v>6432.634410000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5920.48807</v>
+        <v>5940.18452</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>29363.08975</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>23600.18395</v>
+        <v>23612.4416</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>16189.15974</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>16243.99749</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>19300.477</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>29013.102</v>
@@ -2483,34 +2584,39 @@
         <v>23241.53138</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>26916.29621</v>
+        <v>26939.47084</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>26227.77792</v>
+        <v>26258.07436</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>23392.68741</v>
+        <v>23698.50762</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>26586.03899</v>
+        <v>29891.30639</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>36054.66864</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>51628.73741</v>
+        <v>51692.6303</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>73612.19094999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>73733.11579000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>81484.19100000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>26642.85794999999</v>
+        <v>26642.85795</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>15340.79817</v>
@@ -2522,31 +2628,36 @@
         <v>21987.81017</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>25140.03187</v>
+        <v>25163.2065</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>24865.70039</v>
+        <v>24895.99683</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>21877.54298</v>
+        <v>22174.02179</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>25889.95313</v>
+        <v>29195.22053</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>34115.69268</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>51085.15147</v>
+        <v>51149.04436</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>71706.45221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>71827.01155</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>53959.05</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2370.24405</v>
@@ -2567,7 +2678,7 @@
         <v>1362.07753</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1515.14443</v>
+        <v>1524.48583</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>696.08586</v>
@@ -2579,13 +2690,18 @@
         <v>543.5859399999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1905.73874</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1906.10424</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>27525.141</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>241630.8616</v>
@@ -2597,34 +2713,39 @@
         <v>265258.19673</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>284432.81904</v>
+        <v>284433.27294</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>271318.56966</v>
+        <v>271342.1937699999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>154368.45147</v>
+        <v>157387.56842</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>369993.48358</v>
+        <v>374018.52085</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>337968.11581</v>
+        <v>353764.46873</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>472689.31036</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>497607.20397</v>
+        <v>497552.2738</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>566505.951</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>568842.69382</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>785308.221</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>33259.89752</v>
@@ -2639,31 +2760,36 @@
         <v>41524.61147</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>40864.7182</v>
+        <v>40885.73206999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>42844.7536</v>
+        <v>42909.99863</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>50257.55018000001</v>
+        <v>50411.20037000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>29642.47149</v>
+        <v>32440.24866999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>39961.77665000001</v>
+        <v>39961.77665</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>42780.33357</v>
+        <v>42875.39186</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>56186.98327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>56651.36814000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>69417.765</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>268.43436</v>
@@ -2684,64 +2810,74 @@
         <v>639.61622</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>634.5558700000001</v>
+        <v>634.67362</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>134.04517</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>639.4268600000001</v>
+        <v>639.42686</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>615.9517900000001</v>
+        <v>651.6419000000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>284.94448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>284.9444800000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>724.259</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>32991.46316</v>
+        <v>32991.46316000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>23302.28734</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>30199.95229</v>
+        <v>30199.95228999999</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>41166.13903</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>40174.12858</v>
+        <v>40195.14244999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>42205.13738000001</v>
+        <v>42270.38241000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>49622.99431</v>
+        <v>49776.52675</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>29508.42632</v>
+        <v>32306.2035</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>39322.34979000001</v>
+        <v>39322.34979</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>42164.38178</v>
+        <v>42223.74996</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>55902.03879</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>56366.42366</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>68693.50599999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>17545.9688</v>
@@ -2756,31 +2892,36 @@
         <v>17226.77423</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>17696.52375</v>
+        <v>17713.57109</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>99122.87608</v>
+        <v>104270.73007</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>23410.81993</v>
+        <v>23535.42188</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>198735.67713</v>
+        <v>199608.73689</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>33918.70013</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>195772.01762</v>
+        <v>195883.65988</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>44323.14220999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>44690.74365999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>54512.816</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5.71443</v>
@@ -2810,16 +2951,21 @@
         <v>263.27832</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>91.91657000000001</v>
+        <v>91.91656999999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1.68619</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>12.70339</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>20.882</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2294.50529</v>
@@ -2831,34 +2977,39 @@
         <v>1351.05772</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>762.4953300000001</v>
+        <v>762.49533</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>1173.17343</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>836.1251</v>
+        <v>836.12748</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1031.41381</v>
+        <v>1037.83792</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1443.56461</v>
+        <v>1313.83089</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>835.84299</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7293.09475</v>
+        <v>7293.10882</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1028.14525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1028.40789</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>805.391</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>15245.74908</v>
@@ -2873,31 +3024,36 @@
         <v>16106.90379</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>14148.9587</v>
+        <v>14166.00604</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>98103.93648</v>
+        <v>103251.78809</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>22342.24398</v>
+        <v>22460.42182</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>197233.95373</v>
+        <v>198236.74721</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>32819.57882</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>188387.0063</v>
+        <v>188498.63449</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>43293.31077</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>43649.63238</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>53686.543</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>257344.79032</v>
@@ -2909,40 +3065,45 @@
         <v>28576.69439</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>308730.6562800001</v>
+        <v>308731.11018</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>294486.76411</v>
+        <v>294514.35475</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>98090.32899000001</v>
+        <v>96026.83698000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>396840.21383</v>
+        <v>400894.29934</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>168874.91017</v>
+        <v>186595.98051</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>478732.38688</v>
+        <v>478732.3868800001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>344615.5199199999</v>
+        <v>344544.0057799999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>578369.7920599999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>580803.3183000002</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>800213.17</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>51063.79773000001</v>
+        <v>51063.79773</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>53249.55014999999</v>
+        <v>53249.55015</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>60550.08571</v>
@@ -2951,31 +3112,36 @@
         <v>62740.9166</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>64705.43435</v>
+        <v>64710.84285000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>69104.86562</v>
+        <v>69264.53897999998</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>83107.97053000001</v>
+        <v>83883.57221999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>80658.83047999999</v>
+        <v>84388.63840000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>98978.25371</v>
+        <v>98978.25370999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>120940.35375</v>
+        <v>121093.06778</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>144217.41809</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>144919.57649</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>185487.696</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>206280.99259</v>
@@ -2984,34 +3150,37 @@
         <v>187727.46692</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-31973.39132</v>
+        <v>-31973.39132000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>245989.73968</v>
+        <v>245990.19358</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>229781.32976</v>
+        <v>229803.5119</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>28985.46337000002</v>
+        <v>26762.298</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>313732.2433</v>
+        <v>317010.7271199999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>88216.07969000001</v>
+        <v>102207.34211</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>379754.13317</v>
+        <v>379754.1331699999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>223675.16617</v>
+        <v>223450.938</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>434152.37397</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>435883.74181</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>614725.474</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3711</v>
@@ -3041,31 +3213,34 @@
         <v>3710</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3123</v>
+        <v>3131</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3070</v>
+        <v>3086</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3112</v>
+        <v>3143</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3204</v>
+        <v>3233</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3376</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3427</v>
+        <v>3518</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3637</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3786</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>